--- a/Voiz_project/data/Voiz - User Clustering.xlsx
+++ b/Voiz_project/data/Voiz - User Clustering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!!! GitHub\DataCracy\myscala\Voiz_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FD1C9-C90F-4EA9-9C0D-097250BFCCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA071E2-E2F8-42B8-A191-9D6D451B69E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="173">
   <si>
     <t>user_id</t>
   </si>
@@ -534,12 +534,24 @@
   <si>
     <t>Recommendation for each segment</t>
   </si>
+  <si>
+    <t>&gt;&gt;&gt; Wake up</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; Up Activeness</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; Generate monetary value</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; Reconnect</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -666,8 +678,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +791,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,14 +1037,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1001,77 +1065,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1116,6 +1123,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1240,6 +1340,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-331A-4FE9-899C-E9A5E136C941}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1266,6 +1371,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-331A-4FE9-899C-E9A5E136C941}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1292,6 +1402,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-331A-4FE9-899C-E9A5E136C941}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1318,6 +1433,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-331A-4FE9-899C-E9A5E136C941}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1344,6 +1464,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-331A-4FE9-899C-E9A5E136C941}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1370,6 +1495,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-331A-4FE9-899C-E9A5E136C941}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1399,6 +1529,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-331A-4FE9-899C-E9A5E136C941}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1428,6 +1563,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-331A-4FE9-899C-E9A5E136C941}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1457,6 +1597,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-331A-4FE9-899C-E9A5E136C941}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1486,6 +1631,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-331A-4FE9-899C-E9A5E136C941}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1668,6 +1818,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000015-331A-4FE9-899C-E9A5E136C941}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -1694,6 +1849,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000017-331A-4FE9-899C-E9A5E136C941}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -1720,6 +1880,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000019-331A-4FE9-899C-E9A5E136C941}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -1746,6 +1911,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001B-331A-4FE9-899C-E9A5E136C941}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -1772,6 +1942,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001D-331A-4FE9-899C-E9A5E136C941}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="5"/>
@@ -1798,6 +1973,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001F-331A-4FE9-899C-E9A5E136C941}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="6"/>
@@ -1827,6 +2007,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000021-331A-4FE9-899C-E9A5E136C941}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="7"/>
@@ -1856,6 +2041,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000023-331A-4FE9-899C-E9A5E136C941}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="8"/>
@@ -1885,6 +2075,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000025-331A-4FE9-899C-E9A5E136C941}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="9"/>
@@ -1914,6 +2109,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000027-331A-4FE9-899C-E9A5E136C941}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -3596,10 +3796,10 @@
       <c r="K17" s="4">
         <v>111</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="62" t="s">
         <v>50</v>
       </c>
       <c r="N17" s="14" t="s">
@@ -3644,8 +3844,8 @@
       <c r="K18" s="4">
         <v>211</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="14" t="s">
         <v>53</v>
       </c>
@@ -3694,8 +3894,8 @@
       <c r="K19" s="4">
         <v>311</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="64"/>
       <c r="N19" s="14" t="s">
         <v>57</v>
       </c>
@@ -3744,8 +3944,8 @@
       <c r="K20" s="16">
         <v>121</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="29" t="s">
+      <c r="L20" s="63"/>
+      <c r="M20" s="62" t="s">
         <v>61</v>
       </c>
       <c r="N20" s="14" t="s">
@@ -3790,8 +3990,8 @@
       <c r="K21" s="4">
         <v>221</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="14" t="s">
         <v>53</v>
       </c>
@@ -3837,8 +4037,8 @@
       <c r="K22" s="4">
         <v>321</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="14" t="s">
         <v>57</v>
       </c>
@@ -3884,8 +4084,8 @@
       <c r="K23" s="4">
         <v>131</v>
       </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="29" t="s">
+      <c r="L23" s="63"/>
+      <c r="M23" s="62" t="s">
         <v>62</v>
       </c>
       <c r="N23" s="14" t="s">
@@ -3930,8 +4130,8 @@
       <c r="K24" s="4">
         <v>231</v>
       </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="14" t="s">
         <v>53</v>
       </c>
@@ -3977,8 +4177,8 @@
       <c r="K25" s="4">
         <v>331</v>
       </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="14" t="s">
         <v>57</v>
       </c>
@@ -4027,8 +4227,8 @@
       <c r="K26" s="4">
         <v>141</v>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="29" t="s">
+      <c r="L26" s="63"/>
+      <c r="M26" s="62" t="s">
         <v>67</v>
       </c>
       <c r="N26" s="14" t="s">
@@ -4073,8 +4273,8 @@
       <c r="K27" s="4">
         <v>241</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="14" t="s">
         <v>53</v>
       </c>
@@ -4120,8 +4320,8 @@
       <c r="K28" s="4">
         <v>341</v>
       </c>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
       <c r="N28" s="14" t="s">
         <v>57</v>
       </c>
@@ -4167,10 +4367,10 @@
       <c r="K29" s="4">
         <v>112</v>
       </c>
-      <c r="L29" s="26" t="s">
+      <c r="L29" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="62" t="s">
         <v>50</v>
       </c>
       <c r="N29" s="17" t="s">
@@ -4215,8 +4415,8 @@
       <c r="K30" s="4">
         <v>212</v>
       </c>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
       <c r="N30" s="17" t="s">
         <v>53</v>
       </c>
@@ -4265,8 +4465,8 @@
       <c r="K31" s="4">
         <v>312</v>
       </c>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="64"/>
       <c r="N31" s="17" t="s">
         <v>57</v>
       </c>
@@ -4315,8 +4515,8 @@
       <c r="K32" s="4">
         <v>122</v>
       </c>
-      <c r="L32" s="27"/>
-      <c r="M32" s="29" t="s">
+      <c r="L32" s="63"/>
+      <c r="M32" s="62" t="s">
         <v>61</v>
       </c>
       <c r="N32" s="17" t="s">
@@ -4361,8 +4561,8 @@
       <c r="K33" s="4">
         <v>222</v>
       </c>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="17" t="s">
         <v>53</v>
       </c>
@@ -4408,8 +4608,8 @@
       <c r="K34" s="4">
         <v>322</v>
       </c>
-      <c r="L34" s="27"/>
-      <c r="M34" s="28"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="17" t="s">
         <v>57</v>
       </c>
@@ -4452,8 +4652,8 @@
       <c r="H35" s="4">
         <v>311</v>
       </c>
-      <c r="L35" s="27"/>
-      <c r="M35" s="29" t="s">
+      <c r="L35" s="63"/>
+      <c r="M35" s="62" t="s">
         <v>62</v>
       </c>
       <c r="N35" s="17" t="s">
@@ -4495,8 +4695,8 @@
       <c r="H36" s="4">
         <v>321</v>
       </c>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
       <c r="N36" s="17" t="s">
         <v>53</v>
       </c>
@@ -4539,8 +4739,8 @@
       <c r="H37" s="4">
         <v>311</v>
       </c>
-      <c r="L37" s="27"/>
-      <c r="M37" s="28"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="64"/>
       <c r="N37" s="17" t="s">
         <v>57</v>
       </c>
@@ -4583,8 +4783,8 @@
       <c r="H38" s="4">
         <v>311</v>
       </c>
-      <c r="L38" s="27"/>
-      <c r="M38" s="29" t="s">
+      <c r="L38" s="63"/>
+      <c r="M38" s="62" t="s">
         <v>67</v>
       </c>
       <c r="N38" s="17" t="s">
@@ -4626,8 +4826,8 @@
       <c r="H39" s="4">
         <v>311</v>
       </c>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
       <c r="N39" s="17" t="s">
         <v>53</v>
       </c>
@@ -4670,8 +4870,8 @@
       <c r="H40" s="4">
         <v>311</v>
       </c>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
       <c r="N40" s="17" t="s">
         <v>57</v>
       </c>
@@ -4714,10 +4914,10 @@
       <c r="H41" s="4">
         <v>321</v>
       </c>
-      <c r="L41" s="26" t="s">
+      <c r="L41" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="M41" s="29" t="s">
+      <c r="M41" s="62" t="s">
         <v>50</v>
       </c>
       <c r="N41" s="17" t="s">
@@ -4759,8 +4959,8 @@
       <c r="H42" s="4">
         <v>311</v>
       </c>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
       <c r="N42" s="17" t="s">
         <v>53</v>
       </c>
@@ -4806,8 +5006,8 @@
       <c r="H43" s="4">
         <v>321</v>
       </c>
-      <c r="L43" s="27"/>
-      <c r="M43" s="28"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="64"/>
       <c r="N43" s="17" t="s">
         <v>57</v>
       </c>
@@ -4853,8 +5053,8 @@
       <c r="H44" s="4">
         <v>311</v>
       </c>
-      <c r="L44" s="27"/>
-      <c r="M44" s="29" t="s">
+      <c r="L44" s="63"/>
+      <c r="M44" s="62" t="s">
         <v>61</v>
       </c>
       <c r="N44" s="17" t="s">
@@ -4896,8 +5096,8 @@
       <c r="H45" s="4">
         <v>311</v>
       </c>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
       <c r="N45" s="17" t="s">
         <v>53</v>
       </c>
@@ -4940,8 +5140,8 @@
       <c r="H46" s="4">
         <v>311</v>
       </c>
-      <c r="L46" s="27"/>
-      <c r="M46" s="28"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="64"/>
       <c r="N46" s="17" t="s">
         <v>57</v>
       </c>
@@ -4984,8 +5184,8 @@
       <c r="H47" s="4">
         <v>311</v>
       </c>
-      <c r="L47" s="27"/>
-      <c r="M47" s="29" t="s">
+      <c r="L47" s="63"/>
+      <c r="M47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="N47" s="17" t="s">
@@ -5027,8 +5227,8 @@
       <c r="H48" s="4">
         <v>311</v>
       </c>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
       <c r="N48" s="17" t="s">
         <v>53</v>
       </c>
@@ -5071,8 +5271,8 @@
       <c r="H49" s="4">
         <v>321</v>
       </c>
-      <c r="L49" s="27"/>
-      <c r="M49" s="28"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
       <c r="N49" s="17" t="s">
         <v>57</v>
       </c>
@@ -5115,8 +5315,8 @@
       <c r="H50" s="4">
         <v>311</v>
       </c>
-      <c r="L50" s="27"/>
-      <c r="M50" s="29" t="s">
+      <c r="L50" s="63"/>
+      <c r="M50" s="62" t="s">
         <v>67</v>
       </c>
       <c r="N50" s="17" t="s">
@@ -5158,8 +5358,8 @@
       <c r="H51" s="4">
         <v>311</v>
       </c>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
       <c r="N51" s="17" t="s">
         <v>53</v>
       </c>
@@ -5202,8 +5402,8 @@
       <c r="H52" s="4">
         <v>311</v>
       </c>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
       <c r="N52" s="17" t="s">
         <v>57</v>
       </c>
@@ -72534,6 +72734,12 @@
   </sheetData>
   <autoFilter ref="A1:I2639" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="L17:L28"/>
+    <mergeCell ref="L29:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="L41:L52"/>
     <mergeCell ref="M47:M49"/>
     <mergeCell ref="M50:M52"/>
     <mergeCell ref="M17:M19"/>
@@ -72543,12 +72749,6 @@
     <mergeCell ref="M29:M31"/>
     <mergeCell ref="M32:M34"/>
     <mergeCell ref="M35:M37"/>
-    <mergeCell ref="L17:L28"/>
-    <mergeCell ref="L29:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="L41:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -72562,8 +72762,8 @@
   </sheetPr>
   <dimension ref="A1:J2645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -72573,7 +72773,8 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
@@ -72602,10 +72803,10 @@
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="36" t="s">
         <v>102</v>
       </c>
     </row>
@@ -72613,10 +72814,10 @@
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="36" t="s">
         <v>103</v>
       </c>
     </row>
@@ -72624,30 +72825,30 @@
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="37" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="32" t="s">
         <v>105</v>
       </c>
     </row>
@@ -72655,10 +72856,10 @@
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="32" t="s">
         <v>107</v>
       </c>
     </row>
@@ -72666,10 +72867,10 @@
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="32" t="s">
         <v>109</v>
       </c>
     </row>
@@ -72677,17 +72878,17 @@
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -72740,12 +72941,12 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="46" t="s">
         <v>126</v>
       </c>
     </row>
@@ -72762,441 +72963,403 @@
       <c r="D20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="48" t="s">
         <v>150</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="30"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="40">
         <v>15</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="30"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44" t="s">
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="40">
         <v>74</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="E23" s="74"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="40">
         <v>102</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="84"/>
+      <c r="B25" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="40">
         <v>16</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="30"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44" t="s">
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="40">
         <v>88</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="40">
         <v>234</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="E27" s="74"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="40">
         <v>240</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="30"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="40">
         <v>107</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="40">
         <v>403</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="E30" s="76"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44" t="s">
+      <c r="A31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="40">
         <v>1112</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="30"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="40">
         <v>1090</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="40">
         <v>214</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44" t="s">
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="40">
         <v>1050</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="30"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44" t="s">
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="40">
         <v>2835</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="E35" s="80"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44" t="s">
+      <c r="A36" s="84"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="40">
         <v>4256</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="45">
-        <v>1</v>
-      </c>
-      <c r="E37" s="58" t="s">
+      <c r="D37" s="40">
+        <v>1</v>
+      </c>
+      <c r="E37" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="30"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44" t="s">
+      <c r="A38" s="84"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="40">
         <v>13</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="E38" s="82"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="44" t="s">
+      <c r="A39" s="84"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="40">
         <v>45</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="E39" s="82"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44" t="s">
+      <c r="A40" s="84"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="40">
         <v>50</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="30"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="45">
+      <c r="D41" s="40">
         <v>12</v>
       </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="30"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="40">
         <v>49</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="30"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="44" t="s">
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="40">
         <v>145</v>
       </c>
-      <c r="E43" s="59"/>
-      <c r="F43" s="30"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44" t="s">
+      <c r="A44" s="84"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="40">
         <v>217</v>
       </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="30"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43" t="s">
+      <c r="A45" s="84"/>
+      <c r="B45" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="45">
+      <c r="D45" s="40">
         <v>70</v>
       </c>
-      <c r="E45" s="59"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="44" t="s">
+      <c r="A46" s="84"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="40">
         <v>249</v>
       </c>
-      <c r="E46" s="59"/>
-      <c r="F46" s="30"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="44" t="s">
+      <c r="A47" s="84"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="45">
+      <c r="D47" s="40">
         <v>678</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="30"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="26"/>
       <c r="G47" s="4" t="s">
         <v>78</v>
       </c>
@@ -73205,16 +73368,16 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="44" t="s">
+      <c r="A48" s="84"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D48" s="40">
         <v>981</v>
       </c>
-      <c r="E48" s="60"/>
-      <c r="F48" s="30"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="26"/>
       <c r="G48" s="19" t="s">
         <v>80</v>
       </c>
@@ -73223,1042 +73386,1148 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43" t="s">
+      <c r="A49" s="84"/>
+      <c r="B49" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="40">
         <v>142</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="30"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="44" t="s">
+      <c r="A50" s="84"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="45">
+      <c r="D50" s="40">
         <v>486</v>
       </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="30"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="26"/>
       <c r="G50" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="44" t="s">
+      <c r="A51" s="84"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="45">
+      <c r="D51" s="40">
         <v>1645</v>
       </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="30"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="26"/>
       <c r="G51" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="44" t="s">
+      <c r="A52" s="84"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="45">
+      <c r="D52" s="40">
         <v>3923</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="30"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="45">
-        <v>1</v>
-      </c>
-      <c r="E53" s="61" t="s">
+      <c r="D53" s="40">
+        <v>1</v>
+      </c>
+      <c r="E53" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F53" s="30"/>
+      <c r="F53" s="26"/>
       <c r="G53" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="44" t="s">
+      <c r="A54" s="84"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="45">
+      <c r="D54" s="40">
         <v>7</v>
       </c>
-      <c r="E54" s="62"/>
-      <c r="F54" s="30"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="44" t="s">
+      <c r="A55" s="84"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="45">
+      <c r="D55" s="40">
         <v>14</v>
       </c>
-      <c r="E55" s="62"/>
-      <c r="F55" s="30"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="44" t="s">
+      <c r="A56" s="84"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="45">
+      <c r="D56" s="40">
         <v>21</v>
       </c>
-      <c r="E56" s="62"/>
-      <c r="F56" s="30"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="26"/>
       <c r="G56" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43" t="s">
+      <c r="A57" s="84"/>
+      <c r="B57" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D57" s="45">
+      <c r="D57" s="40">
         <v>4</v>
       </c>
-      <c r="E57" s="62"/>
-      <c r="F57" s="30"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="44" t="s">
+      <c r="A58" s="84"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="40">
         <v>40</v>
       </c>
-      <c r="E58" s="62"/>
-      <c r="F58" s="30"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44" t="s">
+      <c r="A59" s="84"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="45">
+      <c r="D59" s="40">
         <v>88</v>
       </c>
-      <c r="E59" s="62"/>
-      <c r="F59" s="30"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="44" t="s">
+      <c r="A60" s="84"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="45">
+      <c r="D60" s="40">
         <v>81</v>
       </c>
-      <c r="E60" s="62"/>
-      <c r="F60" s="30"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43" t="s">
+      <c r="A61" s="84"/>
+      <c r="B61" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="45">
+      <c r="D61" s="40">
         <v>23</v>
       </c>
-      <c r="E61" s="62"/>
-      <c r="F61" s="30"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="44" t="s">
+      <c r="A62" s="84"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="45">
+      <c r="D62" s="40">
         <v>128</v>
       </c>
-      <c r="E62" s="62"/>
-      <c r="F62" s="30"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44" t="s">
+      <c r="A63" s="84"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="45">
+      <c r="D63" s="40">
         <v>328</v>
       </c>
-      <c r="E63" s="62"/>
-      <c r="F63" s="30"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="44" t="s">
+      <c r="A64" s="84"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="45">
+      <c r="D64" s="40">
         <v>450</v>
       </c>
-      <c r="E64" s="63"/>
-      <c r="F64" s="30"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43" t="s">
+      <c r="A65" s="84"/>
+      <c r="B65" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="45">
+      <c r="D65" s="40">
         <v>47</v>
       </c>
-      <c r="E65" s="64" t="s">
+      <c r="E65" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="F65" s="30"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="44" t="s">
+      <c r="A66" s="84"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="45">
+      <c r="D66" s="40">
         <v>237</v>
       </c>
-      <c r="E66" s="65"/>
-      <c r="F66" s="30"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="44" t="s">
+      <c r="A67" s="84"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D67" s="45">
+      <c r="D67" s="40">
         <v>776</v>
       </c>
-      <c r="E67" s="65"/>
-      <c r="F67" s="30"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="26"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="44" t="s">
+      <c r="A68" s="84"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D68" s="66">
+      <c r="D68" s="44">
         <v>2033</v>
       </c>
-      <c r="E68" s="67"/>
-      <c r="F68" s="30"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="46" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="70" t="s">
+      <c r="C72" s="47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="73">
+      <c r="B73" s="50">
         <v>427</v>
       </c>
-      <c r="C73" s="73">
+      <c r="C73" s="50">
         <v>1.72</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B74" s="73">
+      <c r="B74" s="50">
         <v>342</v>
       </c>
-      <c r="C74" s="73">
+      <c r="C74" s="50">
         <v>1.38</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="72" t="s">
+      <c r="A75" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B75" s="73">
+      <c r="B75" s="50">
         <v>1622</v>
       </c>
-      <c r="C75" s="73">
+      <c r="C75" s="50">
         <v>6.54</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="72" t="s">
+      <c r="A76" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B76" s="73">
+      <c r="B76" s="50">
         <v>1090</v>
       </c>
-      <c r="C76" s="73">
+      <c r="C76" s="50">
         <v>4.3899999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B77" s="73">
+      <c r="B77" s="50">
         <v>4099</v>
       </c>
-      <c r="C77" s="73">
+      <c r="C77" s="50">
         <v>16.510000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="72" t="s">
+      <c r="A78" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="B78" s="73">
+      <c r="B78" s="50">
         <v>4256</v>
       </c>
-      <c r="C78" s="73">
+      <c r="C78" s="50">
         <v>17.149999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="72" t="s">
+      <c r="A79" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B79" s="73">
+      <c r="B79" s="50">
         <v>2510</v>
       </c>
-      <c r="C79" s="73">
+      <c r="C79" s="50">
         <v>10.11</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="72" t="s">
+      <c r="A80" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B80" s="73">
+      <c r="B80" s="50">
         <v>6196</v>
       </c>
-      <c r="C80" s="73">
+      <c r="C80" s="50">
         <v>24.96</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="72" t="s">
+      <c r="A81" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="73">
+      <c r="B81" s="50">
         <v>1185</v>
       </c>
-      <c r="C81" s="73">
+      <c r="C81" s="50">
         <v>4.7699999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="72" t="s">
+      <c r="A82" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B82" s="74">
+      <c r="B82" s="51">
         <v>3093</v>
       </c>
-      <c r="C82" s="74">
+      <c r="C82" s="51">
         <v>12.46</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="75" t="s">
+      <c r="A83" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B83" s="77">
+      <c r="B83" s="54">
         <f>SUM(B73:B82)</f>
         <v>24820</v>
       </c>
-      <c r="C83" s="76"/>
+      <c r="C83" s="53"/>
     </row>
     <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="80"/>
+      <c r="B85" s="57"/>
     </row>
     <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="81" t="s">
+      <c r="A86" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="B86" s="80"/>
+      <c r="B86" s="57"/>
     </row>
     <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="70" t="s">
+      <c r="A87" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="79" t="s">
+      <c r="B87" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="79" t="s">
+      <c r="D87" s="56" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="72" t="s">
+      <c r="A88" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="72" t="s">
+      <c r="B88" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="72" t="s">
+      <c r="C88" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D88" s="72" t="s">
+      <c r="D88" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="72" t="s">
+      <c r="A89" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="72" t="s">
+      <c r="B89" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D89" s="72" t="s">
+      <c r="D89" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="72" t="s">
+      <c r="A90" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="72" t="s">
+      <c r="B90" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="72" t="s">
+      <c r="C90" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D90" s="72" t="s">
+      <c r="D90" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="72" t="s">
+      <c r="A91" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B91" s="72" t="s">
+      <c r="B91" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="72" t="s">
+      <c r="C91" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D91" s="72" t="s">
+      <c r="D91" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="72" t="s">
+      <c r="B92" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="72" t="s">
+      <c r="C92" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D92" s="72" t="s">
+      <c r="D92" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="72" t="s">
+      <c r="B93" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="72" t="s">
+      <c r="C93" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="72" t="s">
+      <c r="D93" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="72" t="s">
+      <c r="A94" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B94" s="72" t="s">
+      <c r="B94" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="72" t="s">
+      <c r="C94" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D94" s="72"/>
+      <c r="D94" s="49"/>
     </row>
     <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="72" t="s">
+      <c r="A95" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="72" t="s">
+      <c r="B95" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="72" t="s">
+      <c r="C95" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D95" s="82"/>
+      <c r="D95" s="59"/>
     </row>
     <row r="96" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="72" t="s">
+      <c r="A96" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B96" s="72" t="s">
+      <c r="B96" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C96" s="72" t="s">
+      <c r="C96" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D96" s="82"/>
+      <c r="D96" s="59"/>
     </row>
     <row r="97" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="72" t="s">
+      <c r="A97" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B97" s="72" t="s">
+      <c r="B97" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="72" t="s">
+      <c r="C97" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D97" s="82"/>
+      <c r="D97" s="59"/>
     </row>
     <row r="98" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="99" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="81" t="s">
+      <c r="A99" s="58" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="70" t="s">
+      <c r="A100" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="B100" s="79" t="s">
+      <c r="B100" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="C100" s="79" t="s">
+      <c r="C100" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="79" t="s">
+      <c r="D100" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="E100" s="79" t="s">
+      <c r="E100" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="F100" s="79" t="s">
+      <c r="F100" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="G100" s="79" t="s">
+      <c r="G100" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H100" s="79" t="s">
+      <c r="H100" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="I100" s="79" t="s">
+      <c r="I100" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="J100" s="79" t="s">
+      <c r="J100" s="56" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="72" t="s">
+      <c r="A101" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B101" s="78">
+      <c r="B101" s="55">
         <v>11.5</v>
       </c>
-      <c r="C101" s="78">
+      <c r="C101" s="55">
         <v>14.8</v>
       </c>
-      <c r="D101" s="78">
+      <c r="D101" s="55">
         <v>16.3</v>
       </c>
-      <c r="E101" s="78">
-        <v>0</v>
-      </c>
-      <c r="F101" s="78">
+      <c r="E101" s="55">
+        <v>0</v>
+      </c>
+      <c r="F101" s="55">
         <v>35</v>
       </c>
-      <c r="G101" s="78">
+      <c r="G101" s="55">
         <v>10</v>
       </c>
-      <c r="H101" s="78">
+      <c r="H101" s="55">
         <v>28</v>
       </c>
-      <c r="I101" s="78">
+      <c r="I101" s="55">
         <v>7</v>
       </c>
-      <c r="J101" s="78">
+      <c r="J101" s="55">
         <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="72" t="s">
+      <c r="A102" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B102" s="78">
+      <c r="B102" s="55">
         <v>12.9</v>
       </c>
-      <c r="C102" s="78">
+      <c r="C102" s="55">
         <v>16.2</v>
       </c>
-      <c r="D102" s="78">
+      <c r="D102" s="55">
         <v>2.7</v>
       </c>
-      <c r="E102" s="78">
-        <v>0</v>
-      </c>
-      <c r="F102" s="78">
+      <c r="E102" s="55">
+        <v>0</v>
+      </c>
+      <c r="F102" s="55">
         <v>35</v>
       </c>
-      <c r="G102" s="78">
+      <c r="G102" s="55">
         <v>10</v>
       </c>
-      <c r="H102" s="78">
+      <c r="H102" s="55">
         <v>28</v>
       </c>
-      <c r="I102" s="78">
-        <v>0</v>
-      </c>
-      <c r="J102" s="78">
+      <c r="I102" s="55">
+        <v>0</v>
+      </c>
+      <c r="J102" s="55">
         <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="72" t="s">
+      <c r="A103" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="78">
+      <c r="B103" s="55">
         <v>11.6</v>
       </c>
-      <c r="C103" s="78">
+      <c r="C103" s="55">
         <v>5.6</v>
       </c>
-      <c r="D103" s="78">
+      <c r="D103" s="55">
         <v>17.8</v>
       </c>
-      <c r="E103" s="78">
-        <v>0</v>
-      </c>
-      <c r="F103" s="78">
+      <c r="E103" s="55">
+        <v>0</v>
+      </c>
+      <c r="F103" s="55">
         <v>35</v>
       </c>
-      <c r="G103" s="78">
+      <c r="G103" s="55">
         <v>4</v>
       </c>
-      <c r="H103" s="78">
+      <c r="H103" s="55">
         <v>9</v>
       </c>
-      <c r="I103" s="78">
+      <c r="I103" s="55">
         <v>7</v>
       </c>
-      <c r="J103" s="78">
+      <c r="J103" s="55">
         <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="72" t="s">
+      <c r="A104" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B104" s="78">
+      <c r="B104" s="55">
         <v>14.2</v>
       </c>
-      <c r="C104" s="78">
+      <c r="C104" s="55">
         <v>5.5</v>
       </c>
-      <c r="D104" s="78">
+      <c r="D104" s="55">
         <v>2.8</v>
       </c>
-      <c r="E104" s="78">
-        <v>0</v>
-      </c>
-      <c r="F104" s="78">
+      <c r="E104" s="55">
+        <v>0</v>
+      </c>
+      <c r="F104" s="55">
         <v>35</v>
       </c>
-      <c r="G104" s="78">
+      <c r="G104" s="55">
         <v>4</v>
       </c>
-      <c r="H104" s="78">
+      <c r="H104" s="55">
         <v>9</v>
       </c>
-      <c r="I104" s="78">
-        <v>0</v>
-      </c>
-      <c r="J104" s="78">
+      <c r="I104" s="55">
+        <v>0</v>
+      </c>
+      <c r="J104" s="55">
         <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="72" t="s">
+      <c r="A105" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B105" s="78">
+      <c r="B105" s="55">
         <v>12.5</v>
       </c>
-      <c r="C105" s="78">
+      <c r="C105" s="55">
         <v>1.5</v>
       </c>
-      <c r="D105" s="78">
+      <c r="D105" s="55">
         <v>17.3</v>
       </c>
-      <c r="E105" s="78">
-        <v>0</v>
-      </c>
-      <c r="F105" s="78">
+      <c r="E105" s="55">
+        <v>0</v>
+      </c>
+      <c r="F105" s="55">
         <v>35</v>
       </c>
-      <c r="G105" s="78">
-        <v>0</v>
-      </c>
-      <c r="H105" s="78">
-        <v>3</v>
-      </c>
-      <c r="I105" s="78">
+      <c r="G105" s="55">
+        <v>0</v>
+      </c>
+      <c r="H105" s="55">
+        <v>3</v>
+      </c>
+      <c r="I105" s="55">
         <v>7</v>
       </c>
-      <c r="J105" s="78">
+      <c r="J105" s="55">
         <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="72" t="s">
+      <c r="A106" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="B106" s="78">
+      <c r="B106" s="55">
         <v>15.4</v>
       </c>
-      <c r="C106" s="78">
+      <c r="C106" s="55">
         <v>1.4</v>
       </c>
-      <c r="D106" s="78">
+      <c r="D106" s="55">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E106" s="78">
-        <v>0</v>
-      </c>
-      <c r="F106" s="78">
+      <c r="E106" s="55">
+        <v>0</v>
+      </c>
+      <c r="F106" s="55">
         <v>35</v>
       </c>
-      <c r="G106" s="78">
-        <v>0</v>
-      </c>
-      <c r="H106" s="78">
-        <v>3</v>
-      </c>
-      <c r="I106" s="78">
-        <v>0</v>
-      </c>
-      <c r="J106" s="78">
+      <c r="G106" s="55">
+        <v>0</v>
+      </c>
+      <c r="H106" s="55">
+        <v>3</v>
+      </c>
+      <c r="I106" s="55">
+        <v>0</v>
+      </c>
+      <c r="J106" s="55">
         <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="72" t="s">
+      <c r="A107" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B107" s="78">
+      <c r="B107" s="55">
         <v>57.9</v>
       </c>
-      <c r="C107" s="78">
+      <c r="C107" s="55">
         <v>7.6</v>
       </c>
-      <c r="D107" s="78">
+      <c r="D107" s="55">
         <v>10.3</v>
       </c>
-      <c r="E107" s="78">
+      <c r="E107" s="55">
         <v>36</v>
       </c>
-      <c r="F107" s="78">
+      <c r="F107" s="55">
         <v>89</v>
       </c>
-      <c r="G107" s="78">
+      <c r="G107" s="55">
         <v>4</v>
       </c>
-      <c r="H107" s="78">
+      <c r="H107" s="55">
         <v>28</v>
       </c>
-      <c r="I107" s="78">
-        <v>0</v>
-      </c>
-      <c r="J107" s="78">
+      <c r="I107" s="55">
+        <v>0</v>
+      </c>
+      <c r="J107" s="55">
         <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="72" t="s">
+      <c r="A108" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B108" s="78">
+      <c r="B108" s="55">
         <v>57.6</v>
       </c>
-      <c r="C108" s="78">
+      <c r="C108" s="55">
         <v>1.4</v>
       </c>
-      <c r="D108" s="78">
+      <c r="D108" s="55">
         <v>7.6</v>
       </c>
-      <c r="E108" s="78">
+      <c r="E108" s="55">
         <v>36</v>
       </c>
-      <c r="F108" s="78">
+      <c r="F108" s="55">
         <v>89</v>
       </c>
-      <c r="G108" s="78">
-        <v>0</v>
-      </c>
-      <c r="H108" s="78">
-        <v>3</v>
-      </c>
-      <c r="I108" s="78">
-        <v>0</v>
-      </c>
-      <c r="J108" s="78">
+      <c r="G108" s="55">
+        <v>0</v>
+      </c>
+      <c r="H108" s="55">
+        <v>3</v>
+      </c>
+      <c r="I108" s="55">
+        <v>0</v>
+      </c>
+      <c r="J108" s="55">
         <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="72" t="s">
+      <c r="A109" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B109" s="78">
+      <c r="B109" s="55">
         <v>125.1</v>
       </c>
-      <c r="C109" s="78">
+      <c r="C109" s="55">
         <v>7.5</v>
       </c>
-      <c r="D109" s="78">
+      <c r="D109" s="55">
         <v>10.5</v>
       </c>
-      <c r="E109" s="78">
+      <c r="E109" s="55">
         <v>90</v>
       </c>
-      <c r="F109" s="78">
+      <c r="F109" s="55">
         <v>183</v>
       </c>
-      <c r="G109" s="78">
+      <c r="G109" s="55">
         <v>4</v>
       </c>
-      <c r="H109" s="78">
+      <c r="H109" s="55">
         <v>28</v>
       </c>
-      <c r="I109" s="78">
-        <v>0</v>
-      </c>
-      <c r="J109" s="78">
+      <c r="I109" s="55">
+        <v>0</v>
+      </c>
+      <c r="J109" s="55">
         <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="72" t="s">
+      <c r="A110" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B110" s="78">
+      <c r="B110" s="55">
         <v>121.2</v>
       </c>
-      <c r="C110" s="78">
+      <c r="C110" s="55">
         <v>1.5</v>
       </c>
-      <c r="D110" s="78">
+      <c r="D110" s="55">
         <v>6.9</v>
       </c>
-      <c r="E110" s="78">
+      <c r="E110" s="55">
         <v>90</v>
       </c>
-      <c r="F110" s="78">
+      <c r="F110" s="55">
         <v>183</v>
       </c>
-      <c r="G110" s="78">
-        <v>0</v>
-      </c>
-      <c r="H110" s="78">
-        <v>3</v>
-      </c>
-      <c r="I110" s="78">
-        <v>0</v>
-      </c>
-      <c r="J110" s="78">
+      <c r="G110" s="55">
+        <v>0</v>
+      </c>
+      <c r="H110" s="55">
+        <v>3</v>
+      </c>
+      <c r="I110" s="55">
+        <v>0</v>
+      </c>
+      <c r="J110" s="55">
         <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="83"/>
-      <c r="B111" s="84"/>
-      <c r="C111" s="84"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="84"/>
-      <c r="F111" s="84"/>
-      <c r="G111" s="84"/>
-      <c r="H111" s="84"/>
-      <c r="I111" s="84"/>
-      <c r="J111" s="84"/>
+      <c r="A111" s="60"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="61"/>
     </row>
     <row r="112" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="81" t="s">
+    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="58" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="70" t="s">
+    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="47" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="72" t="s">
+      <c r="F114" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="85" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="72" t="s">
+      <c r="B115" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="85" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="72" t="s">
+      <c r="B116" s="92"/>
+    </row>
+    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="86" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="72" t="s">
+      <c r="B117" s="92"/>
+      <c r="F117" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="86" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="72" t="s">
+      <c r="B118" s="92"/>
+      <c r="F118" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="87" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="72" t="s">
+      <c r="B119" s="96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="87" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="72" t="s">
+      <c r="B120" s="94"/>
+      <c r="F120" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="88" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="72" t="s">
+      <c r="B121" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="89" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="72" t="s">
+      <c r="B122" s="97"/>
+    </row>
+    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="90" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="72" t="s">
+      <c r="B123" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="90" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="B124" s="95"/>
+      <c r="F124" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F126" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F127" s="91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F129" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F130" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F132" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F133" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F135" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F136" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F138" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F139" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F141" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F142" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F144" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F145" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F147" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F148" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -76746,14 +77015,12 @@
     <row r="2645" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E53:E64"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E37:E48"/>
-    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A37:A52"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
@@ -76763,12 +77030,14 @@
     <mergeCell ref="B57:B60"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A37:A52"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E53:E64"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E37:E48"/>
+    <mergeCell ref="E49:E52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -76802,42 +77071,42 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>95</v>
       </c>
     </row>
@@ -76862,7 +77131,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="26" t="s">
         <v>94</v>
       </c>
     </row>
